--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>##var</t>
   </si>
@@ -112,6 +112,9 @@
     <t>教程内容（对应Language表）</t>
   </si>
   <si>
+    <t>提示框位置</t>
+  </si>
+  <si>
     <t>手位置</t>
   </si>
   <si>
@@ -124,9 +127,6 @@
     <t>教程可点击部分</t>
   </si>
   <si>
-    <t>GuideDialog1</t>
-  </si>
-  <si>
     <t>DP1</t>
   </si>
   <si>
@@ -142,9 +142,6 @@
     <t>BP1</t>
   </si>
   <si>
-    <t>GuideDialog2</t>
-  </si>
-  <si>
     <t>DP2</t>
   </si>
   <si>
@@ -154,9 +151,6 @@
     <t>BP2</t>
   </si>
   <si>
-    <t>GuideDialog3</t>
-  </si>
-  <si>
     <t>DP3</t>
   </si>
   <si>
@@ -166,18 +160,12 @@
     <t>BP3</t>
   </si>
   <si>
-    <t>GuideDialog4</t>
-  </si>
-  <si>
     <t>DP4</t>
   </si>
   <si>
     <t>*</t>
   </si>
   <si>
-    <t>GuideDialog5</t>
-  </si>
-  <si>
     <t>DP5</t>
   </si>
   <si>
@@ -188,9 +176,6 @@
   </si>
   <si>
     <t>BP4</t>
-  </si>
-  <si>
-    <t>GuideDialog6</t>
   </si>
   <si>
     <t>DP6</t>
@@ -906,13 +891,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1168,7 +1146,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1234,7 +1212,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>11</v>
@@ -1279,19 +1257,19 @@
         <v>15</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:9">
@@ -1301,8 +1279,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
+      <c r="D6">
+        <v>1001</v>
       </c>
       <c r="E6" t="s">
         <v>21</v>
@@ -1327,14 +1305,14 @@
       <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>1002</v>
+      </c>
+      <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>27</v>
-      </c>
-      <c r="F7" t="s">
-        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -1343,7 +1321,7 @@
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:9">
@@ -1353,14 +1331,14 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>1003</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s">
-        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -1369,7 +1347,7 @@
         <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:9">
@@ -1379,23 +1357,23 @@
       <c r="C9">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
-        <v>34</v>
+      <c r="D9">
+        <v>1004</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="2:9">
@@ -1405,23 +1383,23 @@
       <c r="C10">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10">
+        <v>1005</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:9">
@@ -1431,23 +1409,23 @@
       <c r="C11">
         <v>6</v>
       </c>
-      <c r="D11" t="s">
-        <v>42</v>
+      <c r="D11">
+        <v>1006</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="H11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="I11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -1146,7 +1146,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -34,26 +34,66 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0">
+    <comment ref="E1" authorId="0">
       <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>批注:</t>
-        </r>
         <r>
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">
-#：情况较为复杂，需自定义（比如UI名称是随机的，生成概率是随机的等情况）
-*：无，None，即不显示相关内容</t>
+          <t>A,B
+A：UI的Id，参考UIRes
+B：UI物体下的目标
+不填写即为不显示。
+其后的：handPos、transparentPos、btnPos
+字段皆可以此做参考</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">如果为transparentPos，
+即为跟随字段“transparentPos”的位置的大小
+如果为handPos，
+即为跟随字段“transparentPos”的位置的大小
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>不填写即为
+点击消去类型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>用于控制一些引导的额外操作：
+在此项目中：
+btn_1：按钮缩放
+btn_0：按钮不缩放
+line_1,XXX：显示线并标明位置
+line_0：不显示线</t>
         </r>
       </text>
     </comment>
@@ -62,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -70,10 +110,10 @@
     <t>sn</t>
   </si>
   <si>
-    <t>step</t>
-  </si>
-  <si>
-    <t>diglogContent</t>
+    <t>nextStep</t>
+  </si>
+  <si>
+    <t>diglogContentId</t>
   </si>
   <si>
     <t>diglogPos</t>
@@ -82,15 +122,21 @@
     <t>handPos</t>
   </si>
   <si>
+    <t>ifMask</t>
+  </si>
+  <si>
     <t>transparentPos</t>
   </si>
   <si>
-    <t>otherHighlight</t>
-  </si>
-  <si>
     <t>btnPos</t>
   </si>
   <si>
+    <t>autohiddenTime</t>
+  </si>
+  <si>
+    <t>extra</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -100,16 +146,25 @@
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>(map#sep=:;),string,string</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
     <t>##</t>
   </si>
   <si>
-    <t>步骤</t>
-  </si>
-  <si>
-    <t>教程内容（对应Language表）</t>
+    <t>下一步骤</t>
+  </si>
+  <si>
+    <t>提示框内容（对应Language表）</t>
   </si>
   <si>
     <t>提示框位置</t>
@@ -118,73 +173,82 @@
     <t>手位置</t>
   </si>
   <si>
+    <t>是否有黑色遮罩</t>
+  </si>
+  <si>
     <t>透明框位置</t>
   </si>
   <si>
-    <t>其他UI的高亮部分</t>
-  </si>
-  <si>
     <t>教程可点击部分</t>
   </si>
   <si>
-    <t>DP1</t>
-  </si>
-  <si>
-    <t>HP1</t>
-  </si>
-  <si>
-    <t>TP1</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>BP1</t>
-  </si>
-  <si>
-    <t>DP2</t>
-  </si>
-  <si>
-    <t>HP2</t>
-  </si>
-  <si>
-    <t>BP2</t>
-  </si>
-  <si>
-    <t>DP3</t>
-  </si>
-  <si>
-    <t>HP3</t>
-  </si>
-  <si>
-    <t>BP3</t>
-  </si>
-  <si>
-    <t>DP4</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>DP5</t>
-  </si>
-  <si>
-    <t>HP4</t>
-  </si>
-  <si>
-    <t>TP2</t>
-  </si>
-  <si>
-    <t>BP4</t>
-  </si>
-  <si>
-    <t>DP6</t>
-  </si>
-  <si>
-    <t>TP3</t>
-  </si>
-  <si>
-    <t>BP5</t>
+    <t>引导自动消失时间</t>
+  </si>
+  <si>
+    <t>额外字段</t>
+  </si>
+  <si>
+    <t>4,Center/DiglogGuidePos2</t>
+  </si>
+  <si>
+    <t>4,Center/Map/good_clone_3_2</t>
+  </si>
+  <si>
+    <t>btn:1;line:0</t>
+  </si>
+  <si>
+    <t>4_Center/DiglogGuidePos2</t>
+  </si>
+  <si>
+    <t>4,Center/Map/good_clone_1_1</t>
+  </si>
+  <si>
+    <t>4,Center/Map/good_clone_3_4</t>
+  </si>
+  <si>
+    <t>4,Center/Map/good_clone_1_2</t>
+  </si>
+  <si>
+    <t>4,Center/Map/good_clone_4_3</t>
+  </si>
+  <si>
+    <t>4,Center/Map/good_clone_1_4</t>
+  </si>
+  <si>
+    <t>4,Center/DiglogGuidePos1</t>
+  </si>
+  <si>
+    <t>line:1|4,Center/Map/good_clone_4_3</t>
+  </si>
+  <si>
+    <t>4,Center/Map/good_clone_4_2</t>
+  </si>
+  <si>
+    <t>line:0</t>
+  </si>
+  <si>
+    <t>4,Center/Map/good_clone_1_3</t>
+  </si>
+  <si>
+    <t>4,Top/CurMoneyBtn</t>
+  </si>
+  <si>
+    <t>btn:0</t>
+  </si>
+  <si>
+    <t>22,Plane/WithdrawBtn/GuideHandPos</t>
+  </si>
+  <si>
+    <t>4,Top/CurMoneyBtn/GuidePos</t>
+  </si>
+  <si>
+    <t>17,Planes/Plane/WithdrawBtn/GuidePos</t>
+  </si>
+  <si>
+    <t>17,Planes/Plane/WithdrawBtn</t>
+  </si>
+  <si>
+    <t>4,Top/WithdrawalBtn</t>
   </si>
 </sst>
 </file>
@@ -197,7 +261,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,12 +412,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -826,12 +884,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1143,23 +1204,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="25.25" customWidth="1"/>
-    <col min="5" max="5" width="11.75" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="16.875" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,8 +1250,14 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,39 +1269,47 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1242,191 +1319,449 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
+        <v>25</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" ht="27" spans="2:11">
       <c r="B6">
-        <v>0</v>
+        <v>10001</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>10002</v>
       </c>
       <c r="D6">
         <v>1001</v>
       </c>
-      <c r="E6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="E6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" ht="27" spans="2:11">
       <c r="B7">
+        <v>10002</v>
+      </c>
+      <c r="C7">
+        <v>10003</v>
+      </c>
+      <c r="D7">
+        <v>1001</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" ht="27" spans="2:11">
+      <c r="B8">
+        <v>10003</v>
+      </c>
+      <c r="C8">
+        <v>10004</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" ht="27" spans="2:11">
+      <c r="B9">
+        <v>10004</v>
+      </c>
+      <c r="C9">
+        <v>10005</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" ht="27" spans="2:11">
+      <c r="B10">
+        <v>10005</v>
+      </c>
+      <c r="C10">
+        <v>10006</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" ht="27" spans="2:11">
+      <c r="B11">
+        <v>10006</v>
+      </c>
+      <c r="C11">
+        <v>10007</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" ht="27" spans="2:11">
+      <c r="B12">
+        <v>10007</v>
+      </c>
+      <c r="C12">
+        <v>10008</v>
+      </c>
+      <c r="D12">
+        <v>1002</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12">
+        <v>1.5</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" ht="27" spans="2:11">
+      <c r="B13">
+        <v>10008</v>
+      </c>
+      <c r="C13">
+        <v>10009</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="27" spans="2:11">
+      <c r="B14">
+        <v>10009</v>
+      </c>
+      <c r="C14">
+        <v>10010</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" ht="27" spans="2:11">
+      <c r="B15">
+        <v>10010</v>
+      </c>
+      <c r="C15">
+        <v>10011</v>
+      </c>
+      <c r="D15">
+        <v>1003</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>1002</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>1003</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
+      <c r="H15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="K15" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="2:11">
+      <c r="B16">
+        <v>10011</v>
+      </c>
+      <c r="C16">
+        <v>10012</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" ht="27" spans="2:11">
+      <c r="B17">
+        <v>10012</v>
+      </c>
+      <c r="C17">
+        <v>10013</v>
+      </c>
+      <c r="D17">
         <v>1004</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>33</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" ht="40.5" spans="2:11">
+      <c r="B18">
+        <v>10013</v>
+      </c>
+      <c r="C18">
+        <v>10014</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" ht="27" spans="2:11">
+      <c r="B19">
+        <v>10014</v>
+      </c>
+      <c r="C19">
+        <v>10015</v>
+      </c>
+      <c r="D19">
         <v>1005</v>
       </c>
-      <c r="E10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" t="s">
+      <c r="E19" s="3" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>1006</v>
-      </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
+      <c r="F19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" ht="40.5" spans="2:11">
+      <c r="B20">
+        <v>10015</v>
+      </c>
+      <c r="C20">
+        <v>10016</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" ht="27" spans="2:11">
+      <c r="B21">
+        <v>10016</v>
+      </c>
+      <c r="C21">
+        <v>10017</v>
+      </c>
+      <c r="D21">
+        <v>1004</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" ht="40.5" spans="2:11">
+      <c r="B22">
+        <v>10017</v>
+      </c>
+      <c r="C22">
+        <v>10018</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" ht="27" spans="2:11">
+      <c r="B23">
+        <v>10018</v>
+      </c>
+      <c r="D23">
+        <v>1005</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -34,7 +34,7 @@
     <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0">
+    <comment ref="K1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -51,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0">
+    <comment ref="O1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,20 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>不填写即为
-点击消去类型</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
+    <comment ref="P1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -97,12 +84,50 @@
         </r>
       </text>
     </comment>
+    <comment ref="E5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不填写，即不进行跳转
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>如果ifNextSetp为FALSE，该不需要填写</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">不填写，即点击后进入下一步类型
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -113,6 +138,24 @@
     <t>nextStep</t>
   </si>
   <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>backStep</t>
+  </si>
+  <si>
+    <t>ifBackPlay</t>
+  </si>
+  <si>
+    <t>ifNextStep</t>
+  </si>
+  <si>
+    <t>ifNextPlay</t>
+  </si>
+  <si>
+    <t>autohiddenTime</t>
+  </si>
+  <si>
     <t>diglogContentId</t>
   </si>
   <si>
@@ -131,9 +174,6 @@
     <t>btnPos</t>
   </si>
   <si>
-    <t>autohiddenTime</t>
-  </si>
-  <si>
     <t>extra</t>
   </si>
   <si>
@@ -164,6 +204,24 @@
     <t>下一步骤</t>
   </si>
   <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>引导中断后，再次进入时跳转步骤</t>
+  </si>
+  <si>
+    <t>引导中断后，再次进入时是否执行跳转的步骤</t>
+  </si>
+  <si>
+    <t>点击/倒计时结束后是否前进一步</t>
+  </si>
+  <si>
+    <t>前进一步后是否执行接下来的步骤</t>
+  </si>
+  <si>
+    <t>引导自动消失时间</t>
+  </si>
+  <si>
     <t>提示框内容（对应Language表）</t>
   </si>
   <si>
@@ -182,73 +240,121 @@
     <t>教程可点击部分</t>
   </si>
   <si>
-    <t>引导自动消失时间</t>
-  </si>
-  <si>
     <t>额外字段</t>
   </si>
   <si>
+    <t>消除组1指引1</t>
+  </si>
+  <si>
     <t>4,Center/DiglogGuidePos2</t>
   </si>
   <si>
     <t>4,Center/Map/good_clone_3_2</t>
   </si>
   <si>
-    <t>btn:1;line:0</t>
-  </si>
-  <si>
-    <t>4_Center/DiglogGuidePos2</t>
+    <t>line:0</t>
+  </si>
+  <si>
+    <t>消除组1指引2</t>
   </si>
   <si>
     <t>4,Center/Map/good_clone_1_1</t>
   </si>
   <si>
+    <t>消除组2指引1</t>
+  </si>
+  <si>
     <t>4,Center/Map/good_clone_3_4</t>
   </si>
   <si>
+    <t>消除组2指引2</t>
+  </si>
+  <si>
     <t>4,Center/Map/good_clone_1_2</t>
   </si>
   <si>
+    <t>无法消除组1指引1</t>
+  </si>
+  <si>
     <t>4,Center/Map/good_clone_4_3</t>
   </si>
   <si>
+    <t>无法消除组1指引2</t>
+  </si>
+  <si>
     <t>4,Center/Map/good_clone_1_4</t>
   </si>
   <si>
+    <t>无法消除线条显示</t>
+  </si>
+  <si>
     <t>4,Center/DiglogGuidePos1</t>
   </si>
   <si>
     <t>line:1|4,Center/Map/good_clone_4_3</t>
   </si>
   <si>
+    <t>消除组3指引1</t>
+  </si>
+  <si>
     <t>4,Center/Map/good_clone_4_2</t>
   </si>
   <si>
-    <t>line:0</t>
+    <t>消除组3指引2</t>
   </si>
   <si>
     <t>4,Center/Map/good_clone_1_3</t>
   </si>
   <si>
+    <t>高亮当前累计钱数</t>
+  </si>
+  <si>
     <t>4,Top/CurMoneyBtn</t>
   </si>
   <si>
-    <t>btn:0</t>
+    <t>告诉玩家消除所有即可通关</t>
+  </si>
+  <si>
+    <t>引导玩家进入下一关(2关)</t>
   </si>
   <si>
     <t>22,Plane/WithdrawBtn/GuideHandPos</t>
   </si>
   <si>
+    <t>22,Plane/WithdrawBtn</t>
+  </si>
+  <si>
+    <t>引导玩家打开兑现界面(2关)</t>
+  </si>
+  <si>
     <t>4,Top/CurMoneyBtn/GuidePos</t>
   </si>
   <si>
+    <t>引导玩家点击兑现按钮(2关)</t>
+  </si>
+  <si>
     <t>17,Planes/Plane/WithdrawBtn/GuidePos</t>
   </si>
   <si>
     <t>17,Planes/Plane/WithdrawBtn</t>
   </si>
   <si>
+    <t>引导玩家点打开兑现信息界面(2关)</t>
+  </si>
+  <si>
     <t>4,Top/WithdrawalBtn</t>
+  </si>
+  <si>
+    <t>引导玩家进入下一关(3关)</t>
+  </si>
+  <si>
+    <t>引导玩家打开兑现界面(3关)</t>
+  </si>
+  <si>
+    <t>引导玩家点击兑现按钮(3关)</t>
+  </si>
+  <si>
+    <t>引导玩家点打开兑现信息界面(3关)</t>
   </si>
 </sst>
 </file>
@@ -613,7 +719,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -634,6 +740,58 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -760,7 +918,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -772,34 +930,34 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -884,12 +1042,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1204,25 +1377,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="29.125" customWidth="1"/>
-    <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
-    <col min="9" max="9" width="16.75" customWidth="1"/>
-    <col min="10" max="10" width="16.875" customWidth="1"/>
-    <col min="11" max="11" width="28" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="16.875" customWidth="1"/>
+    <col min="10" max="10" width="29.125" customWidth="1"/>
+    <col min="11" max="11" width="28.875" customWidth="1"/>
+    <col min="12" max="12" width="39.75" customWidth="1"/>
+    <col min="13" max="13" width="14.375" customWidth="1"/>
+    <col min="14" max="14" width="22.375" customWidth="1"/>
+    <col min="15" max="15" width="29.5" customWidth="1"/>
+    <col min="16" max="16" width="35.875" customWidth="1"/>
+    <col min="19" max="19" width="17.625" customWidth="1"/>
+    <col min="20" max="20" width="19" customWidth="1"/>
+    <col min="21" max="21" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1256,8 +1438,23 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,45 +1468,65 @@
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:16">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1321,447 +1538,747 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="1" t="s">
+    <row r="5" ht="40.5" spans="1:16">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="F5" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" ht="27" spans="2:11">
+    <row r="6" spans="2:16">
       <c r="B6">
         <v>10001</v>
       </c>
       <c r="C6">
         <v>10002</v>
       </c>
-      <c r="D6">
-        <v>1001</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>29</v>
+      <c r="D6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6"/>
+      <c r="F6" t="b">
+        <v>1</v>
       </c>
       <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>10016</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>30</v>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="7" ht="27" spans="2:11">
+    <row r="7" spans="2:16">
       <c r="B7">
         <v>10002</v>
       </c>
       <c r="C7">
         <v>10003</v>
       </c>
-      <c r="D7">
-        <v>1001</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>32</v>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7">
+        <v>10001</v>
+      </c>
+      <c r="F7" t="b">
+        <v>1</v>
       </c>
       <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>10016</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="M7" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K7" s="3"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="8"/>
     </row>
-    <row r="8" ht="27" spans="2:11">
+    <row r="8" spans="2:16">
       <c r="B8">
         <v>10003</v>
       </c>
       <c r="C8">
         <v>10004</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>33</v>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="b">
+        <v>1</v>
       </c>
       <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K8" s="3"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P8" s="8"/>
     </row>
-    <row r="9" ht="27" spans="2:11">
+    <row r="9" spans="2:16">
       <c r="B9">
         <v>10004</v>
       </c>
       <c r="C9">
         <v>10005</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>34</v>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9">
+        <v>10003</v>
+      </c>
+      <c r="F9" t="b">
+        <v>1</v>
       </c>
       <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K9" s="3"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P9" s="8"/>
     </row>
-    <row r="10" ht="27" spans="2:11">
+    <row r="10" ht="27" spans="2:16">
       <c r="B10">
         <v>10005</v>
       </c>
       <c r="C10">
         <v>10006</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>35</v>
+      <c r="D10" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10"/>
+      <c r="F10" t="b">
+        <v>1</v>
       </c>
       <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" t="b">
         <v>0</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K10" s="3"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="8"/>
     </row>
-    <row r="11" ht="27" spans="2:11">
+    <row r="11" ht="27" spans="2:16">
       <c r="B11">
         <v>10006</v>
       </c>
       <c r="C11">
         <v>10007</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3" t="s">
-        <v>36</v>
+      <c r="D11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>10005</v>
+      </c>
+      <c r="F11" t="b">
+        <v>1</v>
       </c>
       <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" t="b">
         <v>0</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K11" s="3"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="8"/>
     </row>
-    <row r="12" ht="27" spans="2:11">
+    <row r="12" ht="27" spans="2:16">
       <c r="B12">
         <v>10007</v>
       </c>
       <c r="C12">
         <v>10008</v>
       </c>
-      <c r="D12">
-        <v>1002</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="3"/>
+      <c r="D12" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12"/>
+      <c r="F12" t="b">
+        <v>1</v>
+      </c>
       <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="b">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.5</v>
+      </c>
+      <c r="J12">
+        <v>10021</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12">
-        <v>1.5</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>38</v>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="13" ht="27" spans="2:11">
+    <row r="13" spans="2:16">
       <c r="B13">
         <v>10008</v>
       </c>
       <c r="C13">
         <v>10009</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>39</v>
+      <c r="D13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13"/>
+      <c r="F13" t="b">
+        <v>1</v>
       </c>
       <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M13" t="b">
         <v>0</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>40</v>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="14" ht="27" spans="2:11">
+    <row r="14" spans="2:16">
       <c r="B14">
         <v>10009</v>
       </c>
       <c r="C14">
         <v>10010</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>41</v>
+      <c r="D14" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14">
+        <v>10008</v>
+      </c>
+      <c r="F14" t="b">
+        <v>1</v>
       </c>
       <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K14" s="3"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="8"/>
     </row>
-    <row r="15" ht="27" spans="2:11">
+    <row r="15" ht="27" spans="2:16">
       <c r="B15">
         <v>10010</v>
       </c>
       <c r="C15">
         <v>10011</v>
       </c>
-      <c r="D15">
-        <v>1003</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="3"/>
+      <c r="D15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" t="b">
+        <v>1</v>
+      </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="K15" s="3" t="s">
-        <v>43</v>
-      </c>
+      <c r="H15" t="b">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.5</v>
+      </c>
+      <c r="J15">
+        <v>10022</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
     </row>
-    <row r="16" ht="40.5" spans="2:11">
+    <row r="16" ht="27" spans="2:16">
       <c r="B16">
         <v>10011</v>
       </c>
       <c r="C16">
         <v>10012</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3" t="s">
-        <v>44</v>
+      <c r="D16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" t="b">
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="H16"/>
+      <c r="I16">
+        <v>1.5</v>
+      </c>
+      <c r="J16">
+        <v>10075</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="8"/>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
     </row>
-    <row r="17" ht="27" spans="2:11">
+    <row r="17" ht="27" spans="2:16">
       <c r="B17">
         <v>10012</v>
       </c>
       <c r="C17">
         <v>10013</v>
       </c>
-      <c r="D17">
-        <v>1004</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>45</v>
+      <c r="D17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17">
+        <v>10013</v>
+      </c>
+      <c r="F17" t="b">
+        <v>1</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="3"/>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" s="8"/>
     </row>
-    <row r="18" ht="40.5" spans="2:11">
+    <row r="18" ht="27" spans="2:16">
       <c r="B18">
         <v>10013</v>
       </c>
       <c r="C18">
         <v>10014</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
-        <v>46</v>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" t="b">
+        <v>1</v>
       </c>
       <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="b">
         <v>0</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="3"/>
+      <c r="J18">
+        <v>10024</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="8"/>
     </row>
-    <row r="19" ht="27" spans="2:11">
+    <row r="19" ht="27" spans="2:16">
       <c r="B19">
         <v>10014</v>
       </c>
       <c r="C19">
         <v>10015</v>
       </c>
-      <c r="D19">
-        <v>1005</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>48</v>
+      <c r="D19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19">
+        <v>10013</v>
+      </c>
+      <c r="F19" t="b">
+        <v>1</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="3"/>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P19" s="8"/>
     </row>
-    <row r="20" ht="40.5" spans="2:11">
+    <row r="20" ht="40.5" spans="2:16">
       <c r="B20">
         <v>10015</v>
       </c>
       <c r="C20">
         <v>10016</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
-        <v>44</v>
+      <c r="D20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" t="b">
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="H20"/>
+      <c r="J20">
+        <v>10044</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="8"/>
     </row>
-    <row r="21" ht="27" spans="2:11">
+    <row r="21" ht="27" spans="2:16">
       <c r="B21">
         <v>10016</v>
       </c>
       <c r="C21">
         <v>10017</v>
       </c>
-      <c r="D21">
-        <v>1004</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>45</v>
+      <c r="D21" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21">
+        <v>10017</v>
+      </c>
+      <c r="F21" t="b">
+        <v>1</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="3"/>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
     </row>
-    <row r="22" ht="40.5" spans="2:11">
+    <row r="22" ht="27" spans="2:16">
       <c r="B22">
         <v>10017</v>
       </c>
       <c r="C22">
         <v>10018</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
-        <v>46</v>
+      <c r="D22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22" t="b">
+        <v>1</v>
       </c>
       <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="b">
         <v>0</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K22" s="3"/>
+      <c r="J22">
+        <v>10024</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="8"/>
     </row>
-    <row r="23" ht="27" spans="2:11">
+    <row r="23" ht="27" spans="2:16">
       <c r="B23">
         <v>10018</v>
       </c>
-      <c r="D23">
-        <v>1005</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>48</v>
+      <c r="C23">
+        <v>10019</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23">
+        <v>10017</v>
+      </c>
+      <c r="F23" t="b">
+        <v>1</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K23" s="3"/>
+      <c r="H23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="P23" s="8"/>
+    </row>
+    <row r="24" ht="40.5" spans="2:16">
+      <c r="B24">
+        <v>10019</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="J24">
+        <v>10044</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -77,8 +77,6 @@
           </rPr>
           <t>用于控制一些引导的额外操作：
 在此项目中：
-btn_1：按钮缩放
-btn_0：按钮不缩放
 line_1,XXX：显示线并标明位置
 line_0：不显示线</t>
         </r>
@@ -127,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -171,7 +169,7 @@
     <t>transparentPos</t>
   </si>
   <si>
-    <t>btnPos</t>
+    <t>clickPos</t>
   </si>
   <si>
     <t>extra</t>
@@ -1379,10 +1377,10 @@
   <sheetPr/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H22" sqref="H22"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1604,7 +1602,6 @@
       <c r="D6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E6"/>
       <c r="F6" t="b">
         <v>1</v>
       </c>
@@ -1684,7 +1681,6 @@
       <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E8"/>
       <c r="F8" t="b">
         <v>1</v>
       </c>
@@ -1752,7 +1748,6 @@
       <c r="D10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E10"/>
       <c r="F10" t="b">
         <v>1</v>
       </c>
@@ -1820,7 +1815,6 @@
       <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E12"/>
       <c r="F12" t="b">
         <v>1</v>
       </c>
@@ -1859,7 +1853,6 @@
       <c r="D13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E13"/>
       <c r="F13" t="b">
         <v>1</v>
       </c>
@@ -1929,7 +1922,6 @@
       <c r="D15" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E15"/>
       <c r="F15" t="b">
         <v>1</v>
       </c>
@@ -1968,14 +1960,12 @@
       <c r="D16" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E16"/>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
       </c>
-      <c r="H16"/>
       <c r="I16">
         <v>1.5</v>
       </c>
@@ -2038,7 +2028,6 @@
       <c r="D18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="E18"/>
       <c r="F18" t="b">
         <v>1</v>
       </c>
@@ -2113,14 +2102,12 @@
       <c r="D20" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E20"/>
       <c r="F20" t="b">
         <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
-      <c r="H20"/>
       <c r="J20">
         <v>10044</v>
       </c>
@@ -2171,7 +2158,9 @@
         <v>0</v>
       </c>
       <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="O21" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="P21" s="8"/>
     </row>
     <row r="22" ht="27" spans="2:16">
@@ -2184,7 +2173,6 @@
       <c r="D22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E22"/>
       <c r="F22" t="b">
         <v>1</v>
       </c>
@@ -2256,10 +2244,9 @@
       <c r="D24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
       <c r="J24">
         <v>10044</v>
       </c>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -1380,7 +1380,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G21" sqref="G21"/>
+      <selection pane="topRight" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1825,7 +1825,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J12">
         <v>10021</v>
@@ -1932,7 +1932,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>10022</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>10075</v>
@@ -2222,7 +2222,7 @@
         <v>1</v>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="8"/>
       <c r="L23" s="8" t="s">

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -1377,10 +1377,10 @@
   <sheetPr/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H21" sqref="H21"/>
+      <selection pane="topRight" activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1961,7 +1961,7 @@
         <v>61</v>
       </c>
       <c r="F16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>
@@ -2103,7 +2103,7 @@
         <v>70</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -1377,10 +1377,10 @@
   <sheetPr/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="G20" sqref="G20"/>
+      <selection pane="topRight" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2103,7 +2103,7 @@
         <v>70</v>
       </c>
       <c r="F20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
@@ -2243,6 +2243,9 @@
       </c>
       <c r="D24" s="5" t="s">
         <v>75</v>
+      </c>
+      <c r="F24" t="b">
+        <v>1</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -125,7 +125,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>##var</t>
   </si>
@@ -1377,10 +1377,10 @@
   <sheetPr/>
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F18" sqref="F18"/>
+      <selection pane="topRight" activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2084,9 +2084,11 @@
         <v>68</v>
       </c>
       <c r="M19" t="b">
-        <v>0</v>
-      </c>
-      <c r="N19" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="O19" s="8" t="s">
         <v>69</v>
       </c>
@@ -2229,9 +2231,11 @@
         <v>68</v>
       </c>
       <c r="M23" t="b">
-        <v>0</v>
-      </c>
-      <c r="N23" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>69</v>
+      </c>
       <c r="O23" s="8" t="s">
         <v>69</v>
       </c>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -1378,9 +1378,9 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="M18" sqref="M18"/>
+      <selection pane="topRight" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2105,7 +2105,7 @@
         <v>70</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -319,7 +319,7 @@
     <t>22,Plane/WithdrawBtn/GuideHandPos</t>
   </si>
   <si>
-    <t>22,Plane/WithdrawBtn</t>
+    <t>22,Plane/ClaimBtn</t>
   </si>
   <si>
     <t>引导玩家打开兑现界面(2关)</t>
@@ -1378,9 +1378,9 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F20" sqref="F20"/>
+      <selection pane="topRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -1378,9 +1378,9 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="O21" sqref="O21"/>
+      <selection pane="topRight" activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1681,6 +1681,9 @@
       <c r="D8" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="E8">
+        <v>10001</v>
+      </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
@@ -1714,7 +1717,7 @@
         <v>46</v>
       </c>
       <c r="E9">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="F9" t="b">
         <v>1</v>
@@ -1748,6 +1751,9 @@
       <c r="D10" s="6" t="s">
         <v>48</v>
       </c>
+      <c r="E10">
+        <v>10001</v>
+      </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>50</v>
       </c>
       <c r="E11">
-        <v>10005</v>
+        <v>10001</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
@@ -1815,6 +1821,9 @@
       <c r="D12" s="6" t="s">
         <v>52</v>
       </c>
+      <c r="E12">
+        <v>10001</v>
+      </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
@@ -1853,6 +1862,9 @@
       <c r="D13" s="6" t="s">
         <v>55</v>
       </c>
+      <c r="E13">
+        <v>10001</v>
+      </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
@@ -1888,7 +1900,7 @@
         <v>57</v>
       </c>
       <c r="E14">
-        <v>10008</v>
+        <v>10001</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
@@ -1921,6 +1933,9 @@
       </c>
       <c r="D15" s="5" t="s">
         <v>59</v>
+      </c>
+      <c r="E15">
+        <v>10001</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
@@ -1960,8 +1975,11 @@
       <c r="D16" s="5" t="s">
         <v>61</v>
       </c>
+      <c r="E16">
+        <v>10001</v>
+      </c>
       <c r="F16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
         <v>0</v>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1380,7 +1380,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F16" sqref="F16"/>
+      <selection pane="topRight" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="J12">
         <v>10021</v>
@@ -1947,7 +1947,7 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="J15">
         <v>10022</v>
@@ -1985,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="J16">
         <v>10075</v>

--- a/DesignerConfigs/Datas/Guides.xlsx
+++ b/DesignerConfigs/Datas/Guides.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
     <t>22,Plane/WithdrawBtn/GuideHandPos</t>
   </si>
   <si>
-    <t>22,Plane/ClaimBtn</t>
+    <t>22,Plane/ClaimBtn;22,Plane/OnlyMoney/OnlyMoneyBtn</t>
   </si>
   <si>
     <t>引导玩家打开兑现界面(2关)</t>
@@ -1378,9 +1378,9 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <pane xSplit="4" topLeftCell="J1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="I16" sqref="I16"/>
+      <selection pane="topRight" activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
